--- a/biology/Botanique/Jacques-Ambroise_Duchemin_de_Villiers/Jacques-Ambroise_Duchemin_de_Villiers.xlsx
+++ b/biology/Botanique/Jacques-Ambroise_Duchemin_de_Villiers/Jacques-Ambroise_Duchemin_de_Villiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques-Ambroise Duchemin de Villiers[n 1], né le 27 juin 1764 à Laval, paroisse de la Trinité, et mort le 5 août 1846 dans la même ville, est un avocat, botaniste et historien français.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Fils de Jacques Duchemin de la Maisonneuve et d'Artémise-Catherine-Marie-Anne Touchard de Sainte-Plaine[1]. Sa sœur ainée épousa M. Boullier, d'Ernée[1]. Il est le parrain, le 31 octobre 1772, de sa sœur cadette, Artémise Duchemin[2],[n 2], ainsi que celui de son neveu Isidore Boullier.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Jacques Duchemin de la Maisonneuve et d'Artémise-Catherine-Marie-Anne Touchard de Sainte-Plaine. Sa sœur ainée épousa M. Boullier, d'Ernée. Il est le parrain, le 31 octobre 1772, de sa sœur cadette, Artémise Duchemin,[n 2], ainsi que celui de son neveu Isidore Boullier.
 Généalogie de Jacques-Ambroise Duchemin de Villiers
 Gabriel Duchemin (1649-1705), sieur du Tertre
 Pierre Duchemin (1691-1755), sieur du Tertre
@@ -528,30 +545,298 @@
 Ambroise Duchemin (1727-?), époux de Marie Duchemin
 Ambroise Duchemin des Cepeaux (1759-1804)
 Jacques Duchemin des Cepeaux, historien, auteur des Souvenirs de la Chouannerie
-Armoiries
-Sa famille, originaire du Maine, avait pour armoiries : "d'or au dromadaire passant de sable".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Armoiries</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa famille, originaire du Maine, avait pour armoiries : "d'or au dromadaire passant de sable".
 Le symbole du dromadaire dans un blason signifiait souvent un voyage en Orient voire en Terre Sainte.
-Biographie
-Débuts
-Après avoir fait ses études classiques au collège de Laval, il étudie le droit à la faculté de Rennes, où il prend sa licence en 1785. Il se fait inscrire la même année comme avocat au siège ordinaire de Laval[2]. 
-Jeune avocat, il est choisi presque aussitôt par le comte de Maillé, baron d'Entrammes, comme procureur fiscal de sa baronnie[3].
-Procureur fiscal
-Comme René Pichot de la Graverie, et Hoisnard, son oncle; dont il recueillera les œuvres manuscrites, il se met à
-rédiger non seulement ses propres plaidoyers, mais aussi le résumé des causes débattues devant lui. Il annote en même temps la Coutume du Maine, donne par écrit de nombreuses consultations, puis, comme ses prédécesseurs, inscrit parmi ses notes journalières le procès-verbal des séances de l'Hotel-de-Ville, et à la Révolution française les délibérations des assemblées communales[4].
-Révolution française
-Il accepte lui-même un rôle dans l'organisation du district de Laval, le 8 juillet 1790. Nommé procureur syndic[5], ses fonctions étaient des plus laborieuses[n 5]. Sur sa proposition, et à défaut d'un local affecté comme lieu de réunion pour le district, Jacques-Ambroise Duchemin de Villiers offrit la grande salle de la maison de son père, au faubourg Saint-Martin. Cette proposition est acceptée provisoirement[6].
-Dès le début, du reste, il ne déguise pas ses appréhensions, sinon ses répugnances, pour le nouvel ordre de choses[n 6]. Il quitte, en effet, ses fonctions de procureur syndic le 8 février 1791[6].
-Après sa démission il redevint avocat et plaide, devant le tribunal révolutionnaire[6].
-Prisons
-À l'arrivée du conventionnel Joseph Fouché à Laval, le 25 mars 1793, il est du nombre des quarante suspects qu'on lui désigne et qui sont renfermés aux Bénédictines de Laval[7]. Il est libéré le 21 juillet 1793[8], et se réfugie tout d'abord en campagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Débuts</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir fait ses études classiques au collège de Laval, il étudie le droit à la faculté de Rennes, où il prend sa licence en 1785. Il se fait inscrire la même année comme avocat au siège ordinaire de Laval. 
+Jeune avocat, il est choisi presque aussitôt par le comte de Maillé, baron d'Entrammes, comme procureur fiscal de sa baronnie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Procureur fiscal</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme René Pichot de la Graverie, et Hoisnard, son oncle; dont il recueillera les œuvres manuscrites, il se met à
+rédiger non seulement ses propres plaidoyers, mais aussi le résumé des causes débattues devant lui. Il annote en même temps la Coutume du Maine, donne par écrit de nombreuses consultations, puis, comme ses prédécesseurs, inscrit parmi ses notes journalières le procès-verbal des séances de l'Hotel-de-Ville, et à la Révolution française les délibérations des assemblées communales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Révolution française</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il accepte lui-même un rôle dans l'organisation du district de Laval, le 8 juillet 1790. Nommé procureur syndic, ses fonctions étaient des plus laborieuses[n 5]. Sur sa proposition, et à défaut d'un local affecté comme lieu de réunion pour le district, Jacques-Ambroise Duchemin de Villiers offrit la grande salle de la maison de son père, au faubourg Saint-Martin. Cette proposition est acceptée provisoirement.
+Dès le début, du reste, il ne déguise pas ses appréhensions, sinon ses répugnances, pour le nouvel ordre de choses[n 6]. Il quitte, en effet, ses fonctions de procureur syndic le 8 février 1791.
+Après sa démission il redevint avocat et plaide, devant le tribunal révolutionnaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Prisons</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'arrivée du conventionnel Joseph Fouché à Laval, le 25 mars 1793, il est du nombre des quarante suspects qu'on lui désigne et qui sont renfermés aux Bénédictines de Laval. Il est libéré le 21 juillet 1793, et se réfugie tout d'abord en campagne.
 Il décide après l'emprisonnement de ses parents[n 7] à s'éloigner davantage.
-Bibliothèque
-Lors de la Terreur, obligé de quitter sa famille et ses occupations professionnelles, il augmente sa bibliothèque, par de nombreuses acquisitions[n 8],[9]. Il acquiert beaucoup de classiques français en éditions originales, des elzéviers, des ouvrages de droit, des livres scientifiques et autres, qui finissent par former une bibliothèque de 6 000 volumes[n 9].
-Royaliste
-Il est emprisonné une seconde fois à Paris. Il semble avoir été libéré après le 9 thermidor. Il va bientôt fixer sa résidence à Chartres, où il se donne tout entier à l'étude. Il rentre en effet à Laval, mais pour assez peu de temps, car 1797 est marquée par une recrudescence de mesures violentes.
-Il rejoint son pays après le désarmement complet des royalistes, en 1800. À la nouvelle organisation des tribunaux sous le Premier empire, en 1811, il retrouve une fonction de judicature[n 10]. Il est nommé ensuite conseiller de préfecture par la Restauration, le 29 décembre 1814[10],[11]. Le gouvernement des Cent-Jours le laisse en charge[12].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bibliothèque</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la Terreur, obligé de quitter sa famille et ses occupations professionnelles, il augmente sa bibliothèque, par de nombreuses acquisitions[n 8],. Il acquiert beaucoup de classiques français en éditions originales, des elzéviers, des ouvrages de droit, des livres scientifiques et autres, qui finissent par former une bibliothèque de 6 000 volumes[n 9].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques-Ambroise_Duchemin_de_Villiers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Royaliste</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est emprisonné une seconde fois à Paris. Il semble avoir été libéré après le 9 thermidor. Il va bientôt fixer sa résidence à Chartres, où il se donne tout entier à l'étude. Il rentre en effet à Laval, mais pour assez peu de temps, car 1797 est marquée par une recrudescence de mesures violentes.
+Il rejoint son pays après le désarmement complet des royalistes, en 1800. À la nouvelle organisation des tribunaux sous le Premier empire, en 1811, il retrouve une fonction de judicature[n 10]. Il est nommé ensuite conseiller de préfecture par la Restauration, le 29 décembre 1814,. Le gouvernement des Cent-Jours le laisse en charge.
 Lorsque Paul Étienne de Villiers du Terrage, révoqué à la chute définitive de Napoléon, quitte Laval, il lui laisse l'administration provisoire. Le chargé d'affaires doit prévenir les accidents qui pouvaient se produire par suite de conflits entre la troupe régulière, qui ne connaissait pas ou ne reconnaissait pas encore le changement de gouvernement,et la petite armée royaliste qui, même avisée de la rentrée de Louis XVIII, ne voulait pas s'être réunie pour rien[n 11].
-Il devient par la suite procureur du roi, et obtint un peu plus tard la présidence, du tribunal de première instance[13]. Il obtient la Légion d'honneur en 1825[14]. Il est Bibliothécaire de Laval de 1820 à 1822. Ultra-royaliste[10], il démissionne en 1830[13].
+Il devient par la suite procureur du roi, et obtint un peu plus tard la présidence, du tribunal de première instance. Il obtient la Légion d'honneur en 1825. Il est Bibliothécaire de Laval de 1820 à 1822. Ultra-royaliste, il démissionne en 1830.
 </t>
         </is>
       </c>
